--- a/기능상세.xlsx
+++ b/기능상세.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26707"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43FBCBA-6A27-49D0-9368-CFD52FE418E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E6AEE0-7808-4B9A-8CEF-2A64D4D8E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>대분류</t>
   </si>
@@ -90,13 +90,22 @@
     <t>기기에서 알림을 받기위한 권한을 설정한다</t>
   </si>
   <si>
-    <t>알림 푸쉬</t>
+    <t>알림</t>
   </si>
   <si>
     <t>알림을 받는다</t>
   </si>
   <si>
     <t>메일이 발송되면 알림이 발생하고 클릭하면 앱으로 연결된다</t>
+  </si>
+  <si>
+    <t>메일</t>
+  </si>
+  <si>
+    <t>메일을 받는다</t>
+  </si>
+  <si>
+    <t>새로운 피드에 대해 메일을 받는다</t>
   </si>
   <si>
     <t>로그아웃</t>
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -608,26 +617,39 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
